--- a/fuentes/contenidos/grado06/guion05/SolicitudGrafica_CS_06_05_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion05/SolicitudGrafica_CS_06_05_CO.xlsx
@@ -2531,9 +2531,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
